--- a/day4/assignmentsheet.xlsx
+++ b/day4/assignmentsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\sindhi\2021-2022\pythontraining\day4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F71CBBA-1CB3-440C-8FED-6F38A3BBA723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB7F69D-CB03-4561-AE63-78C1A41A791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A68A1731-A654-49AC-A9B9-4E5BB1E61FA4}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +97,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,8 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,54 +536,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2994172D-5135-451B-BFE5-5AF8FDE4203F}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="246" zoomScaleNormal="246" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>2020</v>
-      </c>
-      <c r="D3">
-        <v>600</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -568,30 +600,57 @@
         <v>2020</v>
       </c>
       <c r="D4">
-        <v>455</v>
+        <v>600</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
       <c r="D5">
+        <v>455</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6">
         <v>400</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>